--- a/data/using/_Combined_All_Data.xlsx
+++ b/data/using/_Combined_All_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE170DC-83AF-4D84-BBF8-716F720E3273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539C681-2A62-4536-9B96-9825450B3C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="945" windowWidth="21705" windowHeight="14085" tabRatio="601" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="360" windowWidth="21705" windowHeight="14085" tabRatio="601" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST Results" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ross</author>
+  </authors>
+  <commentList>
+    <comment ref="AD15" authorId="0" shapeId="0" xr:uid="{3CF9EF82-5CA1-4867-810E-146195294CA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ross:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Spearman's</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0" shapeId="0" xr:uid="{FFBE139F-0A54-477F-9AA5-D34F97BAE998}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ross:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Spearman's</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W26" authorId="0" shapeId="0" xr:uid="{8E5BC80B-1CF6-4083-A04F-5171B925571D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ross:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Spearman's</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X26" authorId="0" shapeId="0" xr:uid="{043DE237-A33A-441B-AEF5-93FEE23B3C86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ross:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Spearman's</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1906">
   <si>
     <t>ID</t>
   </si>
@@ -9265,17 +9371,44 @@
     <t>STXP/Age</t>
   </si>
   <si>
+    <t>Stg1/1.4</t>
+  </si>
+  <si>
     <t>Stg1C</t>
   </si>
   <si>
     <t>Stg2C</t>
+  </si>
+  <si>
+    <t>STXP/Edu</t>
+  </si>
+  <si>
+    <t>Systemic Performance</t>
+  </si>
+  <si>
+    <t>Spearman's Rho</t>
+  </si>
+  <si>
+    <t>Stg2/3.1</t>
+  </si>
+  <si>
+    <t>Stg1Min</t>
+  </si>
+  <si>
+    <t>Stg1Max</t>
+  </si>
+  <si>
+    <t>Stg2Min</t>
+  </si>
+  <si>
+    <t>Stg2Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9283,6 +9416,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -48194,7 +48340,7 @@
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="V1" sqref="V1:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52102,11 +52248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2DDDB2-B151-4302-8CC8-A7A54DB6769F}">
-  <dimension ref="A1:AN22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2DDDB2-B151-4302-8CC8-A7A54DB6769F}">
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52116,12 +52262,14 @@
     <col min="3" max="3" width="5.5703125" style="24" customWidth="1"/>
     <col min="4" max="8" width="5.28515625" style="24" customWidth="1"/>
     <col min="9" max="20" width="3.85546875" style="24" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="24" customWidth="1"/>
     <col min="22" max="22" width="7.140625" style="24" customWidth="1"/>
     <col min="23" max="23" width="8.140625" style="24" customWidth="1"/>
     <col min="24" max="26" width="9.140625" style="24"/>
     <col min="27" max="27" width="12.42578125" style="24" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="24"/>
+    <col min="28" max="30" width="9.140625" style="24"/>
+    <col min="31" max="31" width="9.5703125" style="24" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -52477,16 +52625,16 @@
         <v>0.432</v>
       </c>
       <c r="AC4" s="24">
-        <f>ROUND(CORREL(E2:E20,W2:W20), 3)</f>
-        <v>0.35899999999999999</v>
+        <f>ROUND(CORREL(D2:D20,W2:W20), 3)</f>
+        <v>0.25</v>
       </c>
       <c r="AD4" s="24">
-        <f>ROUND(CORREL(F2:F20,X2:X20), 3)</f>
-        <v>1.7000000000000001E-2</v>
+        <f>ROUND(CORREL(D2:D20,X2:X20), 3)*-1</f>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AE4" s="24">
-        <f>ROUND(CORREL(G2:G20,Y2:Y20), 3)</f>
-        <v>0.248</v>
+        <f>ROUND(CORREL(D2:D20,Y2:Y20), 3)</f>
+        <v>0.3</v>
       </c>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -52587,8 +52735,8 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="AD5" s="24">
-        <f>ROUND(CORREL(E2:E20, X2:X20), 3)</f>
-        <v>-0.23</v>
+        <f>ROUND(CORREL(E2:E20, X2:X20), 3)*-1</f>
+        <v>0.23</v>
       </c>
       <c r="AE5" s="24">
         <f>ROUND(CORREL(E2:E20, Y2:Y20), 3)</f>
@@ -52746,6 +52894,9 @@
       <c r="Y7" s="1">
         <v>6</v>
       </c>
+      <c r="AA7" s="6" t="s">
+        <v>1900</v>
+      </c>
       <c r="AN7" s="27"/>
     </row>
     <row r="8" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -52822,6 +52973,24 @@
       <c r="Y8" s="1">
         <v>6</v>
       </c>
+      <c r="Z8" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>0.46009</v>
+      </c>
+      <c r="AB8" s="24">
+        <v>0.45256999999999997</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>0.13284000000000001</v>
+      </c>
+      <c r="AE8" s="24">
+        <v>0.28367999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -52897,6 +53066,24 @@
       <c r="Y9" s="1">
         <v>5</v>
       </c>
+      <c r="Z9" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>0.40712999999999999</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>7.3230000000000003E-2</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>0.18546000000000001</v>
+      </c>
+      <c r="AE9" s="24">
+        <v>3.5709999999999999E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -53046,15 +53233,6 @@
       </c>
       <c r="Y11" s="1">
         <v>10</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>1892</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>1893</v>
-      </c>
-      <c r="AD11" s="26" t="s">
-        <v>1894</v>
       </c>
       <c r="AN11" s="22"/>
     </row>
@@ -53132,21 +53310,6 @@
       <c r="Y12" s="1">
         <v>6</v>
       </c>
-      <c r="Z12" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA12" s="24">
-        <f>ROUND((D3+D4+D6+D8+D9+D10+D11+D12+D14+D15+D16+D20)/13, 1)</f>
-        <v>33</v>
-      </c>
-      <c r="AB12" s="24">
-        <f>ROUND((D2+D5+D7+D13+D17+D18+D19)/7, 1)</f>
-        <v>25.3</v>
-      </c>
-      <c r="AD12" s="24">
-        <f>ROUND(CORREL(V2:V20, C2:C20), 3)</f>
-        <v>0.58299999999999996</v>
-      </c>
       <c r="AN12" s="22"/>
     </row>
     <row r="13" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53223,16 +53386,17 @@
       <c r="Y13" s="1">
         <v>6</v>
       </c>
-      <c r="Z13" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA13" s="24">
-        <f>ROUND((E3+E4+E6+E8+E9+E10+E11+E12+E14+E15+E16+E20)/13, 1)</f>
-        <v>12.6</v>
-      </c>
-      <c r="AB13" s="24">
-        <f>ROUND((E2+E5+E7+E13+E17+E18+E19)/7, 1)</f>
-        <v>6</v>
+      <c r="AA13" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>1898</v>
       </c>
       <c r="AN13" s="22"/>
     </row>
@@ -53310,7 +53474,25 @@
       <c r="Y14" s="1">
         <v>2</v>
       </c>
-      <c r="Z14" s="26"/>
+      <c r="Z14" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA14" s="24">
+        <f>ROUND((D3+D4+D6+D8+D9+D10+D11+D12+D14+D15+D16+D20)/13, 1)</f>
+        <v>33</v>
+      </c>
+      <c r="AB14" s="24">
+        <f>ROUND((D2+D5+D7+D13+D17+D18+D19)/7, 1)</f>
+        <v>25.3</v>
+      </c>
+      <c r="AD14" s="24">
+        <f>ROUND(CORREL(V2:V20, C2:C20), 3)</f>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AE14" s="24">
+        <f>ROUND(CORREL(Y2:Y20, C2:C20), 3)</f>
+        <v>0.68200000000000005</v>
+      </c>
       <c r="AN14" s="22"/>
     </row>
     <row r="15" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53387,7 +53569,23 @@
       <c r="Y15" s="1">
         <v>4</v>
       </c>
-      <c r="Z15" s="26"/>
+      <c r="Z15" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA15" s="24">
+        <f>ROUND((E3+E4+E6+E8+E9+E10+E11+E12+E14+E15+E16+E20)/13, 1)</f>
+        <v>12.6</v>
+      </c>
+      <c r="AB15" s="24">
+        <f>ROUND((E2+E5+E7+E13+E17+E18+E19)/7, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>0.55891000000000002</v>
+      </c>
+      <c r="AE15" s="24">
+        <v>0.66742999999999997</v>
+      </c>
       <c r="AN15" s="22"/>
     </row>
     <row r="16" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53541,7 +53739,25 @@
       <c r="Y17" s="1">
         <v>4</v>
       </c>
-      <c r="Z17" s="26"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>1905</v>
+      </c>
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53618,7 +53834,29 @@
       <c r="Y18" s="1">
         <v>4</v>
       </c>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="15" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AA18">
+        <f>ROUND(SUM(D2:D6)/5, 1)</f>
+        <v>50</v>
+      </c>
+      <c r="AB18">
+        <f>ROUND(SUM(E2:E6)/5, 1)</f>
+        <v>15.8</v>
+      </c>
+      <c r="AC18" s="24">
+        <v>50</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="24">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="24">
+        <v>47</v>
+      </c>
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53695,7 +53933,29 @@
       <c r="Y19" s="1">
         <v>6</v>
       </c>
-      <c r="Z19" s="26"/>
+      <c r="Z19" s="15" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AA19">
+        <f>ROUND(SUM(D7:D11)/5, 1)</f>
+        <v>27.8</v>
+      </c>
+      <c r="AB19">
+        <f>ROUND(SUM(E7:E11)/5, 1)</f>
+        <v>12.6</v>
+      </c>
+      <c r="AC19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
+        <v>50</v>
+      </c>
+      <c r="AE19" s="24">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="24">
+        <v>22</v>
+      </c>
       <c r="AN19" s="22"/>
     </row>
     <row r="20" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53772,7 +54032,29 @@
       <c r="Y20" s="1">
         <v>4</v>
       </c>
-      <c r="Z20" s="26"/>
+      <c r="Z20" s="15" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AA20">
+        <f>ROUND(SUM(D12:D20)/9, 1)</f>
+        <v>24.1</v>
+      </c>
+      <c r="AB20">
+        <f>ROUND(SUM(E12:E20)/9, 1)</f>
+        <v>7.1</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="24">
+        <v>50</v>
+      </c>
+      <c r="AE20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="24">
+        <v>23</v>
+      </c>
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -53783,10 +54065,280 @@
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="U22" s="22"/>
       <c r="V22" s="25"/>
+      <c r="AA22" s="26"/>
       <c r="AN22" s="22"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D24" s="21">
+        <f>ROUND(D2/5, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="21">
+        <f>ROUND(E2/5, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D25" s="21">
+        <f t="shared" ref="D25:D42" si="0">ROUND(D3/5, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" ref="E25:E42" si="1">ROUND(E3/5, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U25" s="21"/>
+      <c r="W25" s="6" t="s">
+        <v>1895</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U26" s="21"/>
+      <c r="W26" s="24">
+        <v>0.27487</v>
+      </c>
+      <c r="X26" s="24">
+        <v>0.38621</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D27" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U27" s="21"/>
+      <c r="Z27" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA27" s="24">
+        <v>0.18278</v>
+      </c>
+      <c r="AB27" s="24">
+        <v>8.4330000000000002E-2</v>
+      </c>
+      <c r="AC27" s="24">
+        <v>0.24052999999999999</v>
+      </c>
+      <c r="AD27" s="24">
+        <v>3.3410000000000002E-2</v>
+      </c>
+      <c r="AE27" s="24">
+        <v>7.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U28" s="21"/>
+      <c r="Z28" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA28" s="24">
+        <v>2.622E-2</v>
+      </c>
+      <c r="AB28" s="24">
+        <v>-0.31175000000000003</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>0.28626000000000001</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>-5.5739999999999998E-2</v>
+      </c>
+      <c r="AE28" s="24">
+        <v>-0.23468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U29" s="21"/>
+      <c r="Z29" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA29" s="24">
+        <v>0.10172</v>
+      </c>
+      <c r="AB29" s="24">
+        <v>0.28155999999999998</v>
+      </c>
+      <c r="AC29" s="24">
+        <v>0.14144000000000001</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE29" s="24">
+        <v>0.28155999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="21"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U31" s="21"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="D32" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U32" s="21"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55952,8 +56504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56043,7 +56595,7 @@
         <v>304</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="Z1" s="7"/>
     </row>
@@ -56451,7 +57003,7 @@
         <v>2</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -62099,19 +62651,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" activeCellId="1" sqref="A20:XFD20 A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="9" width="50" customWidth="1"/>
+    <col min="4" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -62121,176 +62677,194 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>739187</v>
+        <v>61046</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>601</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>308</v>
+        <v>602</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>84924</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>374328</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>316</v>
+      <c r="J4" s="2" t="s">
+        <v>1109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>942575</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>116420</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>61046</v>
+        <v>144707</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>459</v>
+        <v>1586</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>601</v>
+        <v>1623</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>602</v>
+        <v>1317</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>600</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>604</v>
+        <v>1624</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>605</v>
+        <v>767</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1625</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>879051</v>
+        <v>865260</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>459</v>
+        <v>1719</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>1778</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>1779</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>1780</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>1781</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>1701</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1782</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>686419</v>
+        <v>530476</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>459</v>
+        <v>1801</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -62307,43 +62881,47 @@
       <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>697106</v>
+        <v>942575</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>431</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>433</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>434</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>435</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>753307</v>
       </c>
@@ -62365,623 +62943,344 @@
       <c r="G9" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
+        <v>906861</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>523118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>993807</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>739187</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>116420</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>930512</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>84924</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="G11" s="2" t="s">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>932101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>936</v>
+      <c r="G16" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>591218</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>70</v>
+    <row r="17" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>103194</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1413</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>821010</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>807290</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1541</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>374328</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>1109</v>
+    <row r="19" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>690179</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1702</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>932101</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>943391</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>906861</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>523118</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>227159</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>103194</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>313895</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>993807</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>807290</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>586798</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>144707</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>690179</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>350452</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>865260</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>555741</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>530476</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>70</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>SUM(H2:H19)/16</f>
+        <v>0.6875</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
+    <sortCondition descending="1" ref="C2:C20"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -62992,7 +63291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
